--- a/MEDIA/3004_拉亞直營營業額(2020-10-01~2020-10-31).xlsx
+++ b/MEDIA/3004_拉亞直營營業額(2020-10-01~2020-10-31).xlsx
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>34052</v>
+        <v>37762</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
@@ -523,7 +523,7 @@
         <v>14106</v>
       </c>
       <c r="G3" t="n">
-        <v>41.4</v>
+        <v>37.4</v>
       </c>
       <c r="H3" t="n">
         <v>81</v>
@@ -532,7 +532,7 @@
         <v>10342</v>
       </c>
       <c r="J3" t="n">
-        <v>30.4</v>
+        <v>27.4</v>
       </c>
       <c r="K3" t="n">
         <v>29</v>
@@ -541,16 +541,16 @@
         <v>4390</v>
       </c>
       <c r="M3" t="n">
-        <v>12.9</v>
+        <v>11.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>4690</v>
       </c>
       <c r="V3" t="n">
-        <v>13.8</v>
+        <v>12.4</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -577,13 +577,13 @@
         <v>524</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AA3" t="n">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26223</v>
+        <v>26224</v>
       </c>
       <c r="E10" t="n">
         <v>94</v>
@@ -1161,7 +1161,7 @@
         <v>25</v>
       </c>
       <c r="L10" t="n">
-        <v>2574.95</v>
+        <v>2575</v>
       </c>
       <c r="M10" t="n">
         <v>9.800000000000001</v>
@@ -1226,16 +1226,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>31524</v>
+        <v>31716</v>
       </c>
       <c r="E11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="n">
-        <v>9533</v>
+        <v>9725</v>
       </c>
       <c r="G11" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="H11" t="n">
         <v>53</v>
@@ -1244,7 +1244,7 @@
         <v>6564</v>
       </c>
       <c r="J11" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="K11" t="n">
         <v>29</v>
@@ -1253,7 +1253,7 @@
         <v>3965</v>
       </c>
       <c r="M11" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>1220</v>
       </c>
       <c r="P11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q11" t="n">
         <v>6</v>
@@ -1271,7 +1271,7 @@
         <v>1375</v>
       </c>
       <c r="S11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
         <v>41</v>
@@ -1280,7 +1280,7 @@
         <v>6215</v>
       </c>
       <c r="V11" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="W11" t="n">
         <v>41</v>
@@ -1292,10 +1292,10 @@
         <v>8.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA11" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30939</v>
+        <v>41349</v>
       </c>
       <c r="E12" t="n">
         <v>72</v>
@@ -1324,7 +1324,7 @@
         <v>10715</v>
       </c>
       <c r="G12" t="n">
-        <v>34.6</v>
+        <v>25.9</v>
       </c>
       <c r="H12" t="n">
         <v>59</v>
@@ -1333,7 +1333,7 @@
         <v>8244</v>
       </c>
       <c r="J12" t="n">
-        <v>26.6</v>
+        <v>19.9</v>
       </c>
       <c r="K12" t="n">
         <v>23</v>
@@ -1342,16 +1342,16 @@
         <v>3180</v>
       </c>
       <c r="M12" t="n">
-        <v>10.3</v>
+        <v>7.7</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>175</v>
+        <v>10585</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6</v>
+        <v>25.6</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>6655</v>
       </c>
       <c r="V12" t="n">
-        <v>21.5</v>
+        <v>16.1</v>
       </c>
       <c r="W12" t="n">
         <v>31</v>
@@ -1378,13 +1378,13 @@
         <v>1970</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AA12" t="n">
-        <v>141</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25477</v>
+        <v>25474</v>
       </c>
       <c r="E15" t="n">
         <v>74</v>
@@ -1597,7 +1597,7 @@
         <v>62</v>
       </c>
       <c r="I15" t="n">
-        <v>6321</v>
+        <v>6318</v>
       </c>
       <c r="J15" t="n">
         <v>24.8</v>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30638</v>
+        <v>31538</v>
       </c>
       <c r="E19" t="n">
         <v>101</v>
@@ -1947,7 +1947,7 @@
         <v>13994</v>
       </c>
       <c r="G19" t="n">
-        <v>45.7</v>
+        <v>44.4</v>
       </c>
       <c r="H19" t="n">
         <v>70</v>
@@ -1956,7 +1956,7 @@
         <v>7434</v>
       </c>
       <c r="J19" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="K19" t="n">
         <v>28</v>
@@ -1965,16 +1965,16 @@
         <v>3440</v>
       </c>
       <c r="M19" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>3920</v>
       </c>
       <c r="V19" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="W19" t="n">
         <v>31</v>
@@ -2001,13 +2001,13 @@
         <v>1850</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA19" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
@@ -2027,16 +2027,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>38134</v>
+        <v>40691</v>
       </c>
       <c r="E20" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F20" t="n">
-        <v>13945</v>
+        <v>14642</v>
       </c>
       <c r="G20" t="n">
-        <v>36.6</v>
+        <v>36</v>
       </c>
       <c r="H20" t="n">
         <v>93</v>
@@ -2045,7 +2045,7 @@
         <v>10414</v>
       </c>
       <c r="J20" t="n">
-        <v>27.3</v>
+        <v>25.6</v>
       </c>
       <c r="K20" t="n">
         <v>30</v>
@@ -2054,16 +2054,16 @@
         <v>4960</v>
       </c>
       <c r="M20" t="n">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="Q20" t="n">
         <v>5</v>
@@ -2072,7 +2072,7 @@
         <v>1160</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="T20" t="n">
         <v>35</v>
@@ -2081,7 +2081,7 @@
         <v>6820</v>
       </c>
       <c r="V20" t="n">
-        <v>17.9</v>
+        <v>16.8</v>
       </c>
       <c r="W20" t="n">
         <v>13</v>
@@ -2090,13 +2090,13 @@
         <v>835</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AA20" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28515</v>
+        <v>35505</v>
       </c>
       <c r="E23" t="n">
         <v>92</v>
@@ -2303,16 +2303,16 @@
         <v>12301</v>
       </c>
       <c r="G23" t="n">
-        <v>43.1</v>
+        <v>34.6</v>
       </c>
       <c r="H23" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" t="n">
-        <v>6983</v>
+        <v>10853</v>
       </c>
       <c r="J23" t="n">
-        <v>24.5</v>
+        <v>30.6</v>
       </c>
       <c r="K23" t="n">
         <v>34</v>
@@ -2321,16 +2321,16 @@
         <v>3519</v>
       </c>
       <c r="M23" t="n">
-        <v>12.3</v>
+        <v>9.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>4050</v>
       </c>
       <c r="V23" t="n">
-        <v>14.2</v>
+        <v>11.4</v>
       </c>
       <c r="W23" t="n">
         <v>43</v>
@@ -2357,13 +2357,13 @@
         <v>1662</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AA23" t="n">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>26973</v>
+        <v>30358</v>
       </c>
       <c r="E24" t="n">
         <v>96</v>
@@ -2392,7 +2392,7 @@
         <v>11147</v>
       </c>
       <c r="G24" t="n">
-        <v>41.3</v>
+        <v>36.7</v>
       </c>
       <c r="H24" t="n">
         <v>91</v>
@@ -2401,7 +2401,7 @@
         <v>8109</v>
       </c>
       <c r="J24" t="n">
-        <v>30.1</v>
+        <v>26.7</v>
       </c>
       <c r="K24" t="n">
         <v>25</v>
@@ -2410,16 +2410,16 @@
         <v>2560</v>
       </c>
       <c r="M24" t="n">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>3385</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>3600</v>
       </c>
       <c r="V24" t="n">
-        <v>13.3</v>
+        <v>11.9</v>
       </c>
       <c r="W24" t="n">
         <v>34</v>
@@ -2446,13 +2446,13 @@
         <v>1557</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA24" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24257</v>
+        <v>25357</v>
       </c>
       <c r="E25" t="n">
         <v>77</v>
@@ -2481,7 +2481,7 @@
         <v>9682</v>
       </c>
       <c r="G25" t="n">
-        <v>39.9</v>
+        <v>38.2</v>
       </c>
       <c r="H25" t="n">
         <v>70</v>
@@ -2490,7 +2490,7 @@
         <v>6251</v>
       </c>
       <c r="J25" t="n">
-        <v>25.8</v>
+        <v>24.7</v>
       </c>
       <c r="K25" t="n">
         <v>26</v>
@@ -2499,16 +2499,16 @@
         <v>2255</v>
       </c>
       <c r="M25" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2526,7 +2526,7 @@
         <v>3305</v>
       </c>
       <c r="V25" t="n">
-        <v>13.6</v>
+        <v>13</v>
       </c>
       <c r="W25" t="n">
         <v>52</v>
@@ -2535,13 +2535,13 @@
         <v>2559</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA25" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>47221</v>
+        <v>50761</v>
       </c>
       <c r="E26" t="n">
         <v>90</v>
@@ -2570,7 +2570,7 @@
         <v>12826</v>
       </c>
       <c r="G26" t="n">
-        <v>27.2</v>
+        <v>25.3</v>
       </c>
       <c r="H26" t="n">
         <v>74</v>
@@ -2579,7 +2579,7 @@
         <v>10097.4</v>
       </c>
       <c r="J26" t="n">
-        <v>21.4</v>
+        <v>19.9</v>
       </c>
       <c r="K26" t="n">
         <v>30</v>
@@ -2588,16 +2588,16 @@
         <v>5420</v>
       </c>
       <c r="M26" t="n">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>11865</v>
+        <v>15405</v>
       </c>
       <c r="P26" t="n">
-        <v>25.1</v>
+        <v>30.3</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>5840</v>
       </c>
       <c r="V26" t="n">
-        <v>12.4</v>
+        <v>11.5</v>
       </c>
       <c r="W26" t="n">
         <v>17</v>
@@ -2624,13 +2624,13 @@
         <v>973</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AA26" t="n">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>33450</v>
+        <v>33546</v>
       </c>
       <c r="E27" t="n">
         <v>91</v>
@@ -2659,7 +2659,7 @@
         <v>11971</v>
       </c>
       <c r="G27" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="H27" t="n">
         <v>69</v>
@@ -2668,7 +2668,7 @@
         <v>7964</v>
       </c>
       <c r="J27" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="K27" t="n">
         <v>33</v>
@@ -2704,19 +2704,19 @@
         <v>5585</v>
       </c>
       <c r="V27" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X27" t="n">
-        <v>1750</v>
+        <v>1846</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA27" t="n">
         <v>136</v>
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27446</v>
+        <v>28656</v>
       </c>
       <c r="E28" t="n">
         <v>95</v>
@@ -2748,16 +2748,16 @@
         <v>10930</v>
       </c>
       <c r="G28" t="n">
-        <v>39.8</v>
+        <v>38.1</v>
       </c>
       <c r="H28" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" t="n">
-        <v>6805</v>
+        <v>8015</v>
       </c>
       <c r="J28" t="n">
-        <v>24.8</v>
+        <v>28</v>
       </c>
       <c r="K28" t="n">
         <v>25</v>
@@ -2766,7 +2766,7 @@
         <v>2565</v>
       </c>
       <c r="M28" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
@@ -2775,7 +2775,7 @@
         <v>1190</v>
       </c>
       <c r="P28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>3860</v>
       </c>
       <c r="V28" t="n">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="W28" t="n">
         <v>45</v>
@@ -2802,13 +2802,13 @@
         <v>2096</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA28" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>28948</v>
+        <v>29068</v>
       </c>
       <c r="E29" t="n">
         <v>99</v>
@@ -2837,16 +2837,16 @@
         <v>13185</v>
       </c>
       <c r="G29" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="H29" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" t="n">
-        <v>7478</v>
+        <v>7598</v>
       </c>
       <c r="J29" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="K29" t="n">
         <v>26</v>
@@ -2894,7 +2894,7 @@
         <v>8.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA29" t="n">
         <v>105</v>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>26728</v>
+        <v>26753</v>
       </c>
       <c r="E32" t="n">
         <v>85</v>
@@ -3152,16 +3152,16 @@
         <v>9.6</v>
       </c>
       <c r="W32" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X32" t="n">
-        <v>2724</v>
+        <v>2749</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="Z32" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA32" t="n">
         <v>98</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>32625</v>
+        <v>39545</v>
       </c>
       <c r="E33" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F33" t="n">
-        <v>16249</v>
+        <v>16629</v>
       </c>
       <c r="G33" t="n">
-        <v>49.8</v>
+        <v>42.1</v>
       </c>
       <c r="H33" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I33" t="n">
-        <v>6640</v>
+        <v>7030</v>
       </c>
       <c r="J33" t="n">
-        <v>20.4</v>
+        <v>17.8</v>
       </c>
       <c r="K33" t="n">
         <v>30</v>
@@ -3211,16 +3211,16 @@
         <v>3595</v>
       </c>
       <c r="M33" t="n">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>6150</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>4330</v>
       </c>
       <c r="V33" t="n">
-        <v>13.3</v>
+        <v>10.9</v>
       </c>
       <c r="W33" t="n">
         <v>23</v>
@@ -3247,13 +3247,13 @@
         <v>1811</v>
       </c>
       <c r="Y33" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AA33" t="n">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34">
@@ -3265,43 +3265,43 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>908335</v>
+        <v>949488</v>
       </c>
       <c r="E34" t="n">
-        <v>2734</v>
+        <v>2739</v>
       </c>
       <c r="F34" t="n">
-        <v>364479</v>
+        <v>365748</v>
       </c>
       <c r="G34" t="n">
-        <v>40.1</v>
+        <v>38.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="I34" t="n">
-        <v>227505</v>
+        <v>233092</v>
       </c>
       <c r="J34" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="K34" t="n">
         <v>847</v>
       </c>
       <c r="L34" t="n">
-        <v>96607</v>
+        <v>96608</v>
       </c>
       <c r="M34" t="n">
-        <v>10.6</v>
+        <v>10.2</v>
       </c>
       <c r="N34" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O34" t="n">
-        <v>24990</v>
+        <v>59165</v>
       </c>
       <c r="P34" t="n">
-        <v>2.8</v>
+        <v>6.2</v>
       </c>
       <c r="Q34" t="n">
         <v>27</v>
@@ -3319,22 +3319,22 @@
         <v>129235</v>
       </c>
       <c r="V34" t="n">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="W34" t="n">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="X34" t="n">
-        <v>59784</v>
+        <v>59905</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="Z34" t="n">
-        <v>7774</v>
+        <v>7800</v>
       </c>
       <c r="AA34" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
